--- a/medicine/Enfance/Convention_de_La_Haye_(1993)/Convention_de_La_Haye_(1993).xlsx
+++ b/medicine/Enfance/Convention_de_La_Haye_(1993)/Convention_de_La_Haye_(1993).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Convention de la Haye du 29 mai 1993 porte sur la protection des enfants et la coopération en matière d’adoption internationale.
 Cette convention a pour objet selon son article premier :
@@ -516,17 +528,128 @@
           <t>Territoire d'application</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La convention signée en 1993 est entrée en vigueur dans la majorité des États signataires. Il existe cependant quelques exceptions[1].
-Non entrée en vigueur
-Trois pays signataires de la convention mais où elle n'est pas encore entrée en vigueur :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La convention signée en 1993 est entrée en vigueur dans la majorité des États signataires. Il existe cependant quelques exceptions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Convention_de_La_Haye_(1993)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Convention_de_La_Haye_(1993)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Territoire d'application</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Non entrée en vigueur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Trois pays signataires de la convention mais où elle n'est pas encore entrée en vigueur :
  Russie (Oui)
  Haïti (Oui)
- Népal (En cours)
-Entrée en vigueur
-Pays où la convention est entrée en vigueur.
-Tous les pays membres de l'Organisation sauf la Russie
+ Népal (En cours)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Convention_de_La_Haye_(1993)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Convention_de_La_Haye_(1993)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Territoire d'application</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Entrée en vigueur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pays où la convention est entrée en vigueur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Convention_de_La_Haye_(1993)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Convention_de_La_Haye_(1993)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Territoire d'application</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Entrée en vigueur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tous les pays membres de l'Organisation sauf la Russie</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Afrique du Sud
  Albanie
  Allemagne
@@ -585,7 +708,47 @@
  Turquie
  Uruguay
  Venezuela
-Certains pays non membres de l'Organisation
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Convention_de_La_Haye_(1993)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Convention_de_La_Haye_(1993)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Territoire d'application</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Entrée en vigueur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Certains pays non membres de l'Organisation</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Andorre
  Arménie
  Azerbaïdjan
